--- a/rules_labeled.xlsx
+++ b/rules_labeled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>rules_index</t>
   </si>
@@ -25,6 +25,12 @@
     <t>sup_ant&amp;cons</t>
   </si>
   <si>
+    <t>profit_associated</t>
+  </si>
+  <si>
+    <t>perc_of_total_profit</t>
+  </si>
+  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -40,127 +46,88 @@
     <t>price</t>
   </si>
   <si>
-    <t>5560754</t>
-  </si>
-  <si>
-    <t>89343</t>
-  </si>
-  <si>
-    <t>5877454</t>
-  </si>
-  <si>
-    <t>5850281</t>
-  </si>
-  <si>
-    <t>5692527</t>
-  </si>
-  <si>
-    <t>5856186</t>
-  </si>
-  <si>
-    <t>5846437</t>
-  </si>
-  <si>
-    <t>5560756</t>
-  </si>
-  <si>
-    <t>5855507</t>
-  </si>
-  <si>
-    <t>5804820</t>
-  </si>
-  <si>
-    <t>5809910</t>
-  </si>
-  <si>
-    <t>5861760</t>
-  </si>
-  <si>
-    <t>1487580006300255120</t>
-  </si>
-  <si>
-    <t>2193074740619379535</t>
-  </si>
-  <si>
-    <t>1487580014009385185</t>
-  </si>
-  <si>
-    <t>1487580013950664926</t>
-  </si>
-  <si>
-    <t>1487580006350586771</t>
-  </si>
-  <si>
-    <t>1602943681873052386</t>
+    <t>2273948218662322995</t>
+  </si>
+  <si>
+    <t>2273948218662322996</t>
+  </si>
+  <si>
+    <t>2273948186248741817</t>
+  </si>
+  <si>
+    <t>1515966223509088532</t>
+  </si>
+  <si>
+    <t>1515966223509117074</t>
+  </si>
+  <si>
+    <t>1515966223509088567</t>
+  </si>
+  <si>
+    <t>2273948297037087396</t>
+  </si>
+  <si>
+    <t>2273948316473492113</t>
+  </si>
+  <si>
+    <t>2.268105506180563e+18</t>
+  </si>
+  <si>
+    <t>2.268105535557469e+18</t>
+  </si>
+  <si>
+    <t>2.268105428166509e+18</t>
+  </si>
+  <si>
+    <t>2.2681054278729078e+18</t>
+  </si>
+  <si>
+    <t>2.2681055385689792e+18</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t>furniture.living_room.cabinet</t>
-  </si>
-  <si>
-    <t>appliances.environment.vacuum</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>jessnail</t>
-  </si>
-  <si>
-    <t>marathon</t>
-  </si>
-  <si>
-    <t>runail</t>
-  </si>
-  <si>
-    <t>browxenna</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>grattol</t>
-  </si>
-  <si>
-    <t>emil</t>
-  </si>
-  <si>
-    <t>194.44</t>
-  </si>
-  <si>
-    <t>299.81</t>
-  </si>
-  <si>
-    <t>44.29</t>
-  </si>
-  <si>
-    <t>137.78</t>
-  </si>
-  <si>
-    <t>46.02</t>
-  </si>
-  <si>
-    <t>75.4</t>
-  </si>
-  <si>
-    <t>45.24</t>
-  </si>
-  <si>
-    <t>207.94</t>
-  </si>
-  <si>
-    <t>79.21</t>
-  </si>
-  <si>
-    <t>63.33</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>71.43</t>
+    <t>electronics.smartphone</t>
+  </si>
+  <si>
+    <t>grohe</t>
+  </si>
+  <si>
+    <t>incase</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>goodride</t>
+  </si>
+  <si>
+    <t>184.72</t>
+  </si>
+  <si>
+    <t>143.98</t>
+  </si>
+  <si>
+    <t>97.2</t>
+  </si>
+  <si>
+    <t>300.9</t>
+  </si>
+  <si>
+    <t>30.07</t>
+  </si>
+  <si>
+    <t>856.23</t>
+  </si>
+  <si>
+    <t>48.82</t>
+  </si>
+  <si>
+    <t>162.01</t>
   </si>
 </sst>
 </file>
@@ -518,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,317 +516,491 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>187</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>3863</v>
+      </c>
+      <c r="D2">
+        <v>1269768.099999865</v>
+      </c>
+      <c r="E2">
+        <v>0.003742907798826737</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>3863</v>
+      </c>
+      <c r="D3">
+        <v>1269768.099999865</v>
+      </c>
+      <c r="E3">
+        <v>0.003742907798826737</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>315</v>
-      </c>
-      <c r="D4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D4">
+        <v>428881.2999999705</v>
+      </c>
+      <c r="E4">
+        <v>0.001264217586298639</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D5">
+        <v>428881.2999999705</v>
+      </c>
+      <c r="E5">
+        <v>0.001264217586298639</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D6">
+        <v>428881.2999999705</v>
+      </c>
+      <c r="E6">
+        <v>0.001264217586298639</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1386</v>
+      </c>
+      <c r="D7">
+        <v>390741.1199999757</v>
+      </c>
+      <c r="E7">
+        <v>0.001151791406139718</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1386</v>
+      </c>
+      <c r="D8">
+        <v>390741.1199999757</v>
+      </c>
+      <c r="E8">
+        <v>0.001151791406139718</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1001</v>
+      </c>
+      <c r="D9">
+        <v>331489.406301974</v>
+      </c>
+      <c r="E9">
+        <v>0.0009771345524243642</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1001</v>
+      </c>
+      <c r="D10">
+        <v>331489.406301974</v>
+      </c>
+      <c r="E10">
+        <v>0.0009771345524243642</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>359</v>
+      </c>
+      <c r="D11">
+        <v>324912.949999996</v>
+      </c>
+      <c r="E11">
+        <v>0.0009577490681132373</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>359</v>
+      </c>
+      <c r="D12">
+        <v>324912.949999996</v>
+      </c>
+      <c r="E12">
+        <v>0.0009577490681132373</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1605</v>
+      </c>
+      <c r="D13">
+        <v>308320.7736462016</v>
+      </c>
+      <c r="E13">
+        <v>0.0009088401482292585</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1605</v>
+      </c>
+      <c r="D14">
+        <v>308320.7736462016</v>
+      </c>
+      <c r="E14">
+        <v>0.0009088401482292585</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1208</v>
+      </c>
+      <c r="D15">
+        <v>291345.4399999926</v>
+      </c>
+      <c r="E15">
+        <v>0.0008588017918615969</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1208</v>
+      </c>
+      <c r="D16">
+        <v>291345.4399999926</v>
+      </c>
+      <c r="E16">
+        <v>0.0008588017918615969</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J16" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>248</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1642</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/rules_labeled.xlsx
+++ b/rules_labeled.xlsx
@@ -46,12 +46,12 @@
     <t>price</t>
   </si>
   <si>
+    <t>2273948218662322996</t>
+  </si>
+  <si>
     <t>2273948218662322995</t>
   </si>
   <si>
-    <t>2273948218662322996</t>
-  </si>
-  <si>
     <t>2273948186248741817</t>
   </si>
   <si>
@@ -106,10 +106,10 @@
     <t>goodride</t>
   </si>
   <si>
+    <t>143.98</t>
+  </si>
+  <si>
     <t>184.72</t>
-  </si>
-  <si>
-    <t>143.98</t>
   </si>
   <si>
     <t>97.2</t>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1386</v>
@@ -700,7 +700,7 @@
         <v>0.001151791406139718</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1208</v>
@@ -956,7 +956,7 @@
         <v>0.0008588017918615969</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/rules_labeled.xlsx
+++ b/rules_labeled.xlsx
@@ -46,21 +46,21 @@
     <t>price</t>
   </si>
   <si>
+    <t>2273948218662322995</t>
+  </si>
+  <si>
     <t>2273948218662322996</t>
   </si>
   <si>
-    <t>2273948218662322995</t>
-  </si>
-  <si>
     <t>2273948186248741817</t>
   </si>
   <si>
+    <t>1515966223509117074</t>
+  </si>
+  <si>
     <t>1515966223509088532</t>
   </si>
   <si>
-    <t>1515966223509117074</t>
-  </si>
-  <si>
     <t>1515966223509088567</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>2.268105535557469e+18</t>
   </si>
   <si>
+    <t>2.2681054278729078e+18</t>
+  </si>
+  <si>
     <t>2.268105428166509e+18</t>
   </si>
   <si>
-    <t>2.2681054278729078e+18</t>
-  </si>
-  <si>
     <t>2.2681055385689792e+18</t>
   </si>
   <si>
@@ -106,19 +106,19 @@
     <t>goodride</t>
   </si>
   <si>
+    <t>184.72</t>
+  </si>
+  <si>
     <t>143.98</t>
   </si>
   <si>
-    <t>184.72</t>
-  </si>
-  <si>
     <t>97.2</t>
   </si>
   <si>
+    <t>30.07</t>
+  </si>
+  <si>
     <t>300.9</t>
-  </si>
-  <si>
-    <t>30.07</t>
   </si>
   <si>
     <t>856.23</t>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1386</v>
@@ -700,7 +700,7 @@
         <v>0.001151791406139718</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -802,7 +802,7 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -880,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1605</v>
@@ -892,10 +892,10 @@
         <v>0.0009088401482292585</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -904,7 +904,7 @@
         <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>1208</v>
@@ -956,7 +956,7 @@
         <v>0.0008588017918615969</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10">
